--- a/etc/기능 정의.xlsx
+++ b/etc/기능 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\git\2022_doingdoing\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522BF29A-6071-4BC0-B85D-6E01C1877DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54670E9-4454-4D07-9864-93B272AE2235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA0C591-BA0A-4FAC-A8B8-9A55857082B3}"/>
+    <workbookView xWindow="1800" yWindow="1965" windowWidth="27000" windowHeight="14235" xr2:uid="{CBA0C591-BA0A-4FAC-A8B8-9A55857082B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -422,6 +422,10 @@
     <t>일정(제목, 내용, 기간, 
 공개여부)
 성공 여부와 처리 상태 응답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,15 +596,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -615,6 +610,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -933,7 +937,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -953,60 +957,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -1028,8 +1032,8 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="9" t="s">
         <v>35</v>
       </c>
@@ -1049,8 +1053,8 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="9" t="s">
         <v>36</v>
       </c>
@@ -1070,9 +1074,9 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -1093,7 +1097,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
@@ -1113,12 +1117,12 @@
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="9" t="s">
         <v>13</v>
       </c>
@@ -1138,15 +1142,15 @@
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1161,7 +1165,7 @@
       <c r="F9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="10" t="s">
         <v>71</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -1170,14 +1174,14 @@
       <c r="I9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="10" t="s">
         <v>78</v>
       </c>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
@@ -1187,7 +1191,7 @@
       <c r="E10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="10" t="s">
         <v>84</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -1199,14 +1203,14 @@
       <c r="I10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="9" t="s">
         <v>26</v>
       </c>
@@ -1228,14 +1232,14 @@
       <c r="I11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="9" t="s">
         <v>25</v>
       </c>
@@ -1248,7 +1252,7 @@
       <c r="F12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="10" t="s">
         <v>71</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -1257,14 +1261,14 @@
       <c r="I12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="9" t="s">
         <v>44</v>
       </c>
@@ -1286,7 +1290,7 @@
       <c r="I13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K13" s="7" t="s">
@@ -1294,9 +1298,9 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -1317,16 +1321,16 @@
       <c r="I14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1338,26 +1342,26 @@
       <c r="E15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="10" t="s">
         <v>88</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="10" t="s">
         <v>87</v>
       </c>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="9" t="s">
         <v>40</v>
       </c>
@@ -1367,23 +1371,23 @@
       <c r="E16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="10" t="s">
         <v>89</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>53</v>
       </c>
       <c r="I16" s="7"/>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="9" t="s">
         <v>11</v>
       </c>
@@ -1402,19 +1406,19 @@
       <c r="H17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="9" t="s">
         <v>9</v>
       </c>
@@ -1436,14 +1440,14 @@
       <c r="I18" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="9" t="s">
         <v>10</v>
       </c>
@@ -1461,14 +1465,14 @@
         <v>53</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -1478,10 +1482,10 @@
         <v>24</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H20" s="9" t="s">
@@ -1494,8 +1498,8 @@
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="9" t="s">
         <v>21</v>
       </c>
@@ -1517,18 +1521,18 @@
       <c r="I21" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="9" t="s">
@@ -1542,7 +1546,7 @@
         <v>53</v>
       </c>
       <c r="I22" s="9"/>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K22" s="7"/>

--- a/etc/기능 정의.xlsx
+++ b/etc/기능 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\git\2022_doingdoing\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54670E9-4454-4D07-9864-93B272AE2235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E380C207-A11D-4CC0-AB26-0B2759474BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1965" windowWidth="27000" windowHeight="14235" xr2:uid="{CBA0C591-BA0A-4FAC-A8B8-9A55857082B3}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{CBA0C591-BA0A-4FAC-A8B8-9A55857082B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="93">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -301,12 +301,125 @@
     <t>DELETE</t>
   </si>
   <si>
-    <t>complete-status, 
+    <t>제목, 내용, 기간, 
+공개여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">URL 의 userId 는 일정 소유자
+JWT의 userId 를 이용해 생성 권한 확인
+message </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result{result,message}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwt
+result{result,message}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 아이디, 비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 아이디, 이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 아이디, 인증번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JWT의 userId 를 이용해 비밀 번호 변경 권한 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">개인 정보(사용자 아이디, 
+비밀번호, 이메일, 이름, 회사) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwt
+성공 여부와 처리 상태 응답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공 여부와 처리 상태 응답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user{id, password, email,
+name, company}
+result{result,message}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 관련 수정할 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 관련수정할 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title, content, public, date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user{id, password, email,
+name, company}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 정보(사용자 아이디, 
+비밀번호, 이메일, 이름, 회사) 
+성공 여부와 처리 상태 응답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정목록
+(일정id, 완료여부,
+제목)
+성공 여부와 처리 상태 응답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule{title, content, public, date}
+result{result,message}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정(제목, 내용, 기간, 
+공개여부)
+성공 여부와 처리 상태 응답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>completeStatus, 
 timeout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>complete-status
+    <t>completeStatus
 true : 완료하지 않은 일정
 false : 완료하지 않은 일정
 timeout
@@ -315,117 +428,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제목, 내용, 기간, 
-공개여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">URL 의 userId 는 일정 소유자
-JWT의 userId 를 이용해 생성 권한 확인
-message </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result{result,message}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jwt
+    <t>schedule{id, public, title}
 result{result,message}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응답 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 아이디, 비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 아이디, 이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 아이디, 인증번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JWT의 userId 를 이용해 비밀 번호 변경 권한 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">개인 정보(사용자 아이디, 
-비밀번호, 이메일, 이름, 회사) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jwt
-성공 여부와 처리 상태 응답</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성공 여부와 처리 상태 응답</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user{id, password, email,
-name, company}
-result{result,message}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 관련 수정할 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 관련수정할 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title, content, public, date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user{id, password, email,
-name, company}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인 정보(사용자 아이디, 
-비밀번호, 이메일, 이름, 회사) 
-성공 여부와 처리 상태 응답</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정목록
-(일정id, 완료여부,
-제목)
-성공 여부와 처리 상태 응답</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list{schedule{id, complete, title}}
-result{result,message}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schedule{title, content, public, date}
-result{result,message}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정(제목, 내용, 기간, 
-공개여부)
-성공 여부와 처리 상태 응답</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -936,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE3D90D-8E6C-4BE6-A420-B795062E4ECC}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -947,7 +951,7 @@
     <col min="3" max="3" width="21.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.75" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.875" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" style="2" bestFit="1" customWidth="1"/>
@@ -1000,7 +1004,7 @@
         <v>46</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>52</v>
@@ -1166,16 +1170,16 @@
         <v>49</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>54</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K9" s="7"/>
     </row>
@@ -1192,19 +1196,19 @@
         <v>63</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>54</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="K10" s="7"/>
     </row>
@@ -1224,16 +1228,16 @@
         <v>47</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>54</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K11" s="7"/>
     </row>
@@ -1253,16 +1257,16 @@
         <v>48</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>54</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7"/>
     </row>
@@ -1276,25 +1280,25 @@
         <v>31</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>53</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
@@ -1313,16 +1317,16 @@
         <v>19</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>53</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>61</v>
@@ -1343,19 +1347,19 @@
         <v>62</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>53</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K15" s="7"/>
     </row>
@@ -1372,14 +1376,14 @@
         <v>62</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>53</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>51</v>
@@ -1398,22 +1402,22 @@
         <v>63</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>53</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1429,19 +1433,19 @@
         <v>64</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>53</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K18" s="7"/>
     </row>
@@ -1459,14 +1463,14 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K19" s="7"/>
     </row>
@@ -1482,18 +1486,18 @@
         <v>24</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>53</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K20" s="7"/>
     </row>
@@ -1507,22 +1511,22 @@
         <v>24</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>53</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K21" s="7"/>
     </row>
@@ -1540,14 +1544,14 @@
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>53</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K22" s="7"/>
     </row>

--- a/etc/기능 정의.xlsx
+++ b/etc/기능 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\git\2022_doingdoing\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E380C207-A11D-4CC0-AB26-0B2759474BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BD5967-716D-4A58-82D4-67849849CDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{CBA0C591-BA0A-4FAC-A8B8-9A55857082B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA0C591-BA0A-4FAC-A8B8-9A55857082B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE3D90D-8E6C-4BE6-A420-B795062E4ECC}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
